--- a/21_routineData.xlsx
+++ b/21_routineData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anika Tabassum\Desktop\blinkproject_new\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075EEC43-F25B-483A-B3D8-7B59C4A26FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B61D70-7320-454D-AB60-B9DC7358D8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>batch</t>
   </si>
@@ -101,6 +101,15 @@
   </si>
   <si>
     <t>Semiconductor</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>03:50</t>
+  </si>
+  <si>
+    <t>03:00</t>
   </si>
 </sst>
 </file>
@@ -483,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -922,13 +931,13 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
         <v>26</v>
@@ -937,7 +946,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E5 A7:E25 A6:B6 E6 A26:D26" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:E5 A7:E25 A6:B6 E6 A26" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>